--- a/Data/motility.xlsx
+++ b/Data/motility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinbulla/Dropbox/Science/DATA_collection/ruff_sperm/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE084A1A-4F58-7749-90DB-F5F045BA262E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FE15E8-1E67-2E42-96A1-5BF8EBB3F350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A4398584-79ED-4603-AC4F-3B5C47DEF758}"/>
+    <workbookView xWindow="6000" yWindow="9740" windowWidth="15440" windowHeight="8680" xr2:uid="{A4398584-79ED-4603-AC4F-3B5C47DEF758}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -570,9 +570,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF84DBE-B577-465B-BB96-6DFB54F0457D}">
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -627,25 +627,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="1">
-        <v>1334</v>
+        <v>382</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="2">
-        <v>29.943478260869565</v>
+        <v>28.406189555125724</v>
       </c>
       <c r="F2" s="2">
-        <v>19.59</v>
+        <v>21.234042553191493</v>
       </c>
       <c r="G2" s="2">
-        <v>58.547391304347826</v>
+        <v>51.96324951644101</v>
       </c>
       <c r="H2">
-        <v>230</v>
+        <v>517</v>
       </c>
       <c r="I2" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -656,25 +656,25 @@
         <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>382</v>
+        <v>952</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>28.406189555125724</v>
+        <v>29.171243523316065</v>
       </c>
       <c r="F3" s="2">
-        <v>21.234042553191493</v>
+        <v>19.905699481865287</v>
       </c>
       <c r="G3" s="2">
-        <v>51.96324951644101</v>
+        <v>55.662435233160622</v>
       </c>
       <c r="H3">
-        <v>517</v>
+        <v>386</v>
       </c>
       <c r="I3" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -685,22 +685,22 @@
         <v>9</v>
       </c>
       <c r="C4" s="1">
-        <v>952</v>
+        <v>1300</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>29.171243523316065</v>
+        <v>27.698795180722893</v>
       </c>
       <c r="F4" s="2">
-        <v>19.905699481865287</v>
+        <v>21.320481927710841</v>
       </c>
       <c r="G4" s="2">
-        <v>55.662435233160622</v>
+        <v>51.467469879518077</v>
       </c>
       <c r="H4">
-        <v>386</v>
+        <v>83</v>
       </c>
       <c r="I4" s="3">
         <v>8</v>
@@ -714,25 +714,25 @@
         <v>9</v>
       </c>
       <c r="C5" s="1">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>27.698795180722893</v>
+        <v>30.807407407407414</v>
       </c>
       <c r="F5" s="2">
-        <v>21.320481927710841</v>
+        <v>23.617283950617285</v>
       </c>
       <c r="G5" s="2">
-        <v>51.467469879518077</v>
+        <v>59.792592592592598</v>
       </c>
       <c r="H5">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I5" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -743,25 +743,25 @@
         <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>30.807407407407414</v>
+        <v>29.053333333333338</v>
       </c>
       <c r="F6" s="2">
-        <v>23.617283950617285</v>
+        <v>21.030000000000005</v>
       </c>
       <c r="G6" s="2">
-        <v>59.792592592592598</v>
+        <v>56.975000000000001</v>
       </c>
       <c r="H6">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="I6" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -772,25 +772,25 @@
         <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>29.053333333333338</v>
+        <v>18.5</v>
       </c>
       <c r="F7" s="2">
-        <v>21.030000000000005</v>
+        <v>9.4</v>
       </c>
       <c r="G7" s="2">
-        <v>56.975000000000001</v>
+        <v>37.6</v>
       </c>
       <c r="H7">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I7" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -801,25 +801,25 @@
         <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>18.5</v>
+        <v>25.381168831168832</v>
       </c>
       <c r="F8" s="2">
-        <v>9.4</v>
+        <v>19.488311688311686</v>
       </c>
       <c r="G8" s="2">
-        <v>37.6</v>
+        <v>44.277272727272731</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="I8" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -830,22 +830,22 @@
         <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>25.381168831168832</v>
+        <v>33.623735408560307</v>
       </c>
       <c r="F9" s="2">
-        <v>19.488311688311686</v>
+        <v>25.517120622568093</v>
       </c>
       <c r="G9" s="2">
-        <v>44.277272727272731</v>
+        <v>60.257392996108955</v>
       </c>
       <c r="H9">
-        <v>154</v>
+        <v>514</v>
       </c>
       <c r="I9" s="3">
         <v>8</v>
@@ -859,25 +859,25 @@
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="2">
-        <v>33.623735408560307</v>
+        <v>27.46</v>
       </c>
       <c r="F10" s="2">
-        <v>25.517120622568093</v>
+        <v>19.107499999999998</v>
       </c>
       <c r="G10" s="2">
-        <v>60.257392996108955</v>
+        <v>52.022500000000001</v>
       </c>
       <c r="H10">
-        <v>514</v>
+        <v>80</v>
       </c>
       <c r="I10" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -888,25 +888,25 @@
         <v>9</v>
       </c>
       <c r="C11" s="1">
-        <v>1310</v>
+        <v>1316</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>27.46</v>
+        <v>28.303208556149727</v>
       </c>
       <c r="F11" s="2">
-        <v>19.107499999999998</v>
+        <v>21.037433155080215</v>
       </c>
       <c r="G11" s="2">
-        <v>52.022500000000001</v>
+        <v>49.17860962566845</v>
       </c>
       <c r="H11">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="I11" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -917,22 +917,22 @@
         <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>1316</v>
+        <v>1320</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="2">
-        <v>28.303208556149727</v>
+        <v>33.15115511551155</v>
       </c>
       <c r="F12" s="2">
-        <v>21.037433155080215</v>
+        <v>23.21881188118812</v>
       </c>
       <c r="G12" s="2">
-        <v>49.17860962566845</v>
+        <v>59.333003300330034</v>
       </c>
       <c r="H12">
-        <v>187</v>
+        <v>303</v>
       </c>
       <c r="I12" s="3">
         <v>4</v>
@@ -946,22 +946,22 @@
         <v>9</v>
       </c>
       <c r="C13" s="1">
-        <v>1320</v>
+        <v>1326</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>33.15115511551155</v>
+        <v>29.303703703703704</v>
       </c>
       <c r="F13" s="2">
-        <v>23.21881188118812</v>
+        <v>19.316296296296294</v>
       </c>
       <c r="G13" s="2">
-        <v>59.333003300330034</v>
+        <v>57.74074074074074</v>
       </c>
       <c r="H13">
-        <v>303</v>
+        <v>135</v>
       </c>
       <c r="I13" s="3">
         <v>4</v>
@@ -975,25 +975,25 @@
         <v>9</v>
       </c>
       <c r="C14" s="1">
-        <v>1326</v>
+        <v>1331</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="2">
-        <v>29.303703703703704</v>
+        <v>33.016393442622949</v>
       </c>
       <c r="F14" s="2">
-        <v>19.316296296296294</v>
+        <v>23.522622950819674</v>
       </c>
       <c r="G14" s="2">
-        <v>57.74074074074074</v>
+        <v>60.284918032786891</v>
       </c>
       <c r="H14">
-        <v>135</v>
+        <v>305</v>
       </c>
       <c r="I14" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1004,25 +1004,25 @@
         <v>9</v>
       </c>
       <c r="C15" s="1">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="2">
-        <v>33.016393442622949</v>
+        <v>23.24</v>
       </c>
       <c r="F15" s="2">
-        <v>23.522622950819674</v>
+        <v>13.66</v>
       </c>
       <c r="G15" s="2">
-        <v>60.284918032786891</v>
+        <v>37.880000000000003</v>
       </c>
       <c r="H15">
-        <v>305</v>
+        <v>35</v>
       </c>
       <c r="I15" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1033,25 +1033,25 @@
         <v>9</v>
       </c>
       <c r="C16" s="1">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>23.24</v>
+        <v>28.411111111111111</v>
       </c>
       <c r="F16" s="2">
-        <v>13.66</v>
+        <v>23.981481481481481</v>
       </c>
       <c r="G16" s="2">
-        <v>37.880000000000003</v>
+        <v>45.148148148148145</v>
       </c>
       <c r="H16">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="I16" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1062,25 +1062,25 @@
         <v>9</v>
       </c>
       <c r="C17" s="1">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="2">
-        <v>28.411111111111111</v>
+        <v>29.943478260869565</v>
       </c>
       <c r="F17" s="2">
-        <v>23.981481481481481</v>
+        <v>19.59</v>
       </c>
       <c r="G17" s="2">
-        <v>45.148148148148145</v>
+        <v>58.547391304347826</v>
       </c>
       <c r="H17">
-        <v>54</v>
+        <v>230</v>
       </c>
       <c r="I17" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1381,25 +1381,25 @@
         <v>9</v>
       </c>
       <c r="C28" s="1">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="2">
-        <v>27.415873015873018</v>
+        <v>27.715789473684211</v>
       </c>
       <c r="F28" s="2">
-        <v>19.123809523809523</v>
+        <v>19.86315789473684</v>
       </c>
       <c r="G28" s="2">
-        <v>53.88095238095238</v>
+        <v>46.868421052631582</v>
       </c>
       <c r="H28">
-        <v>189</v>
+        <v>38</v>
       </c>
       <c r="I28" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1410,25 +1410,25 @@
         <v>9</v>
       </c>
       <c r="C29" s="1">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="2">
-        <v>31.514030612244898</v>
+        <v>27.415873015873018</v>
       </c>
       <c r="F29" s="2">
-        <v>22.263265306122452</v>
+        <v>19.123809523809523</v>
       </c>
       <c r="G29" s="2">
-        <v>58.184438775510202</v>
+        <v>53.88095238095238</v>
       </c>
       <c r="H29">
-        <v>392</v>
+        <v>189</v>
       </c>
       <c r="I29" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1439,25 +1439,25 @@
         <v>9</v>
       </c>
       <c r="C30" s="1">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
       <c r="E30" s="2">
-        <v>24.688549618320611</v>
+        <v>31.514030612244898</v>
       </c>
       <c r="F30" s="2">
-        <v>17.204580152671756</v>
+        <v>22.263265306122452</v>
       </c>
       <c r="G30" s="2">
-        <v>49.33511450381679</v>
+        <v>58.184438775510202</v>
       </c>
       <c r="H30">
-        <v>131</v>
+        <v>392</v>
       </c>
       <c r="I30" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1468,25 +1468,25 @@
         <v>9</v>
       </c>
       <c r="C31" s="1">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="E31" s="2">
-        <v>26.028571428571425</v>
+        <v>24.688549618320611</v>
       </c>
       <c r="F31" s="2">
-        <v>19.880000000000003</v>
+        <v>17.204580152671756</v>
       </c>
       <c r="G31" s="2">
-        <v>49.927619047619046</v>
+        <v>49.33511450381679</v>
       </c>
       <c r="H31">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="I31" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1497,25 +1497,25 @@
         <v>9</v>
       </c>
       <c r="C32" s="1">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2">
-        <v>28.437554585152839</v>
+        <v>36.075746268656715</v>
       </c>
       <c r="F32" s="2">
-        <v>18.843668122270739</v>
+        <v>28.533208955223881</v>
       </c>
       <c r="G32" s="2">
-        <v>53.25851528384279</v>
+        <v>56.6820895522388</v>
       </c>
       <c r="H32">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="I32" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1526,25 +1526,25 @@
         <v>9</v>
       </c>
       <c r="C33" s="1">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
       </c>
       <c r="E33" s="2">
-        <v>29.059539473684207</v>
+        <v>26.028571428571425</v>
       </c>
       <c r="F33" s="2">
-        <v>20.168749999999999</v>
+        <v>19.880000000000003</v>
       </c>
       <c r="G33" s="2">
-        <v>57.320723684210527</v>
+        <v>49.927619047619046</v>
       </c>
       <c r="H33">
-        <v>304</v>
+        <v>105</v>
       </c>
       <c r="I33" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1555,25 +1555,25 @@
         <v>9</v>
       </c>
       <c r="C34" s="1">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
       <c r="E34" s="2">
-        <v>27.060563380281689</v>
+        <v>28.437554585152839</v>
       </c>
       <c r="F34" s="2">
-        <v>20.911267605633803</v>
+        <v>18.843668122270739</v>
       </c>
       <c r="G34" s="2">
-        <v>51.268309859154932</v>
+        <v>53.25851528384279</v>
       </c>
       <c r="H34">
-        <v>142</v>
+        <v>229</v>
       </c>
       <c r="I34" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1584,25 +1584,25 @@
         <v>9</v>
       </c>
       <c r="C35" s="1">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
       <c r="E35" s="2">
-        <v>23.146511627906975</v>
+        <v>29.059539473684207</v>
       </c>
       <c r="F35" s="2">
-        <v>15.174418604651162</v>
+        <v>20.168749999999999</v>
       </c>
       <c r="G35" s="2">
-        <v>46.716279069767438</v>
+        <v>57.320723684210527</v>
       </c>
       <c r="H35">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="I35" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1613,25 +1613,25 @@
         <v>9</v>
       </c>
       <c r="C36" s="1">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
       <c r="E36" s="2">
-        <v>27.75393939393939</v>
+        <v>27.060563380281689</v>
       </c>
       <c r="F36" s="2">
-        <v>18.14</v>
+        <v>20.911267605633803</v>
       </c>
       <c r="G36" s="2">
-        <v>55.509090909090908</v>
+        <v>51.268309859154932</v>
       </c>
       <c r="H36">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="I36" s="3">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1642,25 +1642,25 @@
         <v>9</v>
       </c>
       <c r="C37" s="1">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
       <c r="E37" s="2">
-        <v>34.512147505422995</v>
+        <v>23.146511627906975</v>
       </c>
       <c r="F37" s="2">
-        <v>26.541214750542299</v>
+        <v>15.174418604651162</v>
       </c>
       <c r="G37" s="2">
-        <v>60.340347071583516</v>
+        <v>46.716279069767438</v>
       </c>
       <c r="H37">
-        <v>461</v>
+        <v>43</v>
       </c>
       <c r="I37" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -1671,25 +1671,25 @@
         <v>9</v>
       </c>
       <c r="C38" s="1">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
       <c r="E38" s="2">
-        <v>28.568910256410255</v>
+        <v>27.75393939393939</v>
       </c>
       <c r="F38" s="2">
-        <v>18.461858974358975</v>
+        <v>18.14</v>
       </c>
       <c r="G38" s="2">
-        <v>60.304807692307691</v>
+        <v>55.509090909090908</v>
       </c>
       <c r="H38">
-        <v>312</v>
+        <v>165</v>
       </c>
       <c r="I38" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -1700,25 +1700,25 @@
         <v>9</v>
       </c>
       <c r="C39" s="1">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
       </c>
       <c r="E39" s="2">
-        <v>37.734259259259261</v>
+        <v>34.512147505422995</v>
       </c>
       <c r="F39" s="2">
-        <v>28.747222222222216</v>
+        <v>26.541214750542299</v>
       </c>
       <c r="G39" s="2">
-        <v>63.646296296296299</v>
+        <v>60.340347071583516</v>
       </c>
       <c r="H39">
-        <v>324</v>
+        <v>461</v>
       </c>
       <c r="I39" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -1729,25 +1729,25 @@
         <v>9</v>
       </c>
       <c r="C40" s="1">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
       </c>
       <c r="E40" s="2">
-        <v>28.725581395348836</v>
+        <v>28.568910256410255</v>
       </c>
       <c r="F40" s="2">
-        <v>22.025116279069767</v>
+        <v>18.461858974358975</v>
       </c>
       <c r="G40" s="2">
-        <v>52.701395348837217</v>
+        <v>60.304807692307691</v>
       </c>
       <c r="H40">
-        <v>215</v>
+        <v>312</v>
       </c>
       <c r="I40" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -1758,25 +1758,25 @@
         <v>9</v>
       </c>
       <c r="C41" s="1">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
       <c r="E41" s="2">
-        <v>32.224218750000006</v>
+        <v>37.734259259259261</v>
       </c>
       <c r="F41" s="2">
-        <v>28.573437500000001</v>
+        <v>28.747222222222216</v>
       </c>
       <c r="G41" s="2">
-        <v>48.936718749999997</v>
+        <v>63.646296296296299</v>
       </c>
       <c r="H41">
-        <v>128</v>
+        <v>324</v>
       </c>
       <c r="I41" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -1787,25 +1787,25 @@
         <v>9</v>
       </c>
       <c r="C42" s="1">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="E42" s="2">
-        <v>29.895608108108103</v>
+        <v>28.725581395348836</v>
       </c>
       <c r="F42" s="2">
-        <v>24.258108108108107</v>
+        <v>22.025116279069767</v>
       </c>
       <c r="G42" s="2">
-        <v>46.133783783783777</v>
+        <v>52.701395348837217</v>
       </c>
       <c r="H42">
-        <v>296</v>
+        <v>215</v>
       </c>
       <c r="I42" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -1816,22 +1816,22 @@
         <v>9</v>
       </c>
       <c r="C43" s="1">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
       <c r="E43" s="2">
-        <v>32.484489795918371</v>
+        <v>32.224218750000006</v>
       </c>
       <c r="F43" s="2">
-        <v>24.127755102040812</v>
+        <v>28.573437500000001</v>
       </c>
       <c r="G43" s="2">
-        <v>59.349387755102043</v>
+        <v>48.936718749999997</v>
       </c>
       <c r="H43">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="I43" s="3">
         <v>6</v>
@@ -1845,25 +1845,25 @@
         <v>9</v>
       </c>
       <c r="C44" s="1">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
       </c>
       <c r="E44" s="2">
-        <v>31.775833333333335</v>
+        <v>29.895608108108103</v>
       </c>
       <c r="F44" s="2">
-        <v>25.720416666666665</v>
+        <v>24.258108108108107</v>
       </c>
       <c r="G44" s="2">
-        <v>55.03</v>
+        <v>46.133783783783777</v>
       </c>
       <c r="H44">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="I44" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -1874,25 +1874,25 @@
         <v>9</v>
       </c>
       <c r="C45" s="1">
-        <v>1395</v>
+        <v>1385</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
       </c>
       <c r="E45" s="2">
-        <v>31.967419354838714</v>
+        <v>32.484489795918371</v>
       </c>
       <c r="F45" s="2">
-        <v>23.024193548387093</v>
+        <v>24.127755102040812</v>
       </c>
       <c r="G45" s="2">
-        <v>55.767419354838715</v>
+        <v>59.349387755102043</v>
       </c>
       <c r="H45">
-        <v>310</v>
+        <v>245</v>
       </c>
       <c r="I45" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -1903,25 +1903,25 @@
         <v>9</v>
       </c>
       <c r="C46" s="1">
-        <v>1398</v>
+        <v>1386</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
       <c r="E46" s="2">
-        <v>27.275061124694375</v>
+        <v>31.775833333333335</v>
       </c>
       <c r="F46" s="2">
-        <v>18.500000000000004</v>
+        <v>25.720416666666665</v>
       </c>
       <c r="G46" s="2">
-        <v>55.504889975550121</v>
+        <v>55.03</v>
       </c>
       <c r="H46">
-        <v>409</v>
+        <v>240</v>
       </c>
       <c r="I46" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -1932,25 +1932,25 @@
         <v>9</v>
       </c>
       <c r="C47" s="1">
-        <v>1651</v>
+        <v>1395</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
       </c>
       <c r="E47" s="2">
-        <v>31.001699716713883</v>
+        <v>31.967419354838714</v>
       </c>
       <c r="F47" s="2">
-        <v>22.584702549575074</v>
+        <v>23.024193548387093</v>
       </c>
       <c r="G47" s="2">
-        <v>59.163172804532586</v>
+        <v>55.767419354838715</v>
       </c>
       <c r="H47">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="I47" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -1961,289 +1961,293 @@
         <v>9</v>
       </c>
       <c r="C48" s="1">
+        <v>1398</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
+        <v>27.275061124694375</v>
+      </c>
+      <c r="F48" s="2">
+        <v>18.500000000000004</v>
+      </c>
+      <c r="G48" s="2">
+        <v>55.504889975550121</v>
+      </c>
+      <c r="H48">
+        <v>409</v>
+      </c>
+      <c r="I48" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1651</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
+        <v>31.001699716713883</v>
+      </c>
+      <c r="F49" s="2">
+        <v>22.584702549575074</v>
+      </c>
+      <c r="G49" s="2">
+        <v>59.163172804532586</v>
+      </c>
+      <c r="H49">
+        <v>353</v>
+      </c>
+      <c r="I49" s="3">
+        <v>9</v>
+      </c>
+      <c r="J49"/>
+      <c r="K49"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1">
         <v>1654</v>
       </c>
-      <c r="D48" s="1">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2">
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2">
         <v>29.847933884297518</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F50" s="2">
         <v>21.821487603305783</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G50" s="2">
         <v>53.19504132231404</v>
       </c>
-      <c r="H48">
+      <c r="H50">
         <v>121</v>
       </c>
-      <c r="I48" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="5">
+      <c r="I50" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="5">
         <v>1659</v>
       </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="6">
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="6">
         <v>32.456716417910449</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F51" s="6">
         <v>23.838557213930351</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G51" s="6">
         <v>55.02139303482587</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H51" s="4">
         <v>402</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I51" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="1">
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="1">
         <v>1669</v>
       </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
         <v>28.369090909090911</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F52" s="2">
         <v>19.016363636363639</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G52" s="2">
         <v>57.032727272727278</v>
       </c>
-      <c r="H50">
+      <c r="H52">
         <v>55</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I52" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="1">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="1">
         <v>1681</v>
       </c>
-      <c r="D51" s="1">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2">
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2">
         <v>33.27161125319693</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F53" s="2">
         <v>22.432736572890029</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G53" s="2">
         <v>64.69335038363171</v>
       </c>
-      <c r="H51">
+      <c r="H53">
         <v>391</v>
       </c>
-      <c r="I51" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="1">
+      <c r="I53" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="1">
         <v>1682</v>
       </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2">
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2">
         <v>24.869767441860461</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F54" s="2">
         <v>16.81627906976744</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G54" s="2">
         <v>54.218023255813954</v>
       </c>
-      <c r="H52">
+      <c r="H54">
         <v>172</v>
       </c>
-      <c r="I52" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="1">
+      <c r="I54" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="1">
         <v>1687</v>
       </c>
-      <c r="D53" s="1">
-        <v>1</v>
-      </c>
-      <c r="E53" s="2">
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
         <v>27.577083333333334</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F55" s="2">
         <v>21.977083333333333</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G55" s="2">
         <v>50.938194444444449</v>
       </c>
-      <c r="H53">
+      <c r="H55">
         <v>144</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I55" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="1">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="1">
         <v>1689</v>
       </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2">
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2">
         <v>28.181105990783408</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F56" s="2">
         <v>20.080184331797238</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G56" s="2">
         <v>54.251152073732726</v>
       </c>
-      <c r="H54">
+      <c r="H56">
         <v>217</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I56" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="1">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="1">
         <v>704105</v>
       </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
-      <c r="E55" s="2">
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2">
         <v>35.824476987447703</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F57" s="2">
         <v>29.467573221757323</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G57" s="2">
         <v>58.521338912133892</v>
       </c>
-      <c r="H55">
+      <c r="H57">
         <v>478</v>
       </c>
-      <c r="I55" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1360</v>
-      </c>
-      <c r="D56" s="1">
-        <v>2</v>
-      </c>
-      <c r="E56" s="2">
-        <v>27.715789473684211</v>
-      </c>
-      <c r="F56" s="2">
-        <v>19.86315789473684</v>
-      </c>
-      <c r="G56" s="2">
-        <v>46.868421052631582</v>
-      </c>
-      <c r="H56">
-        <v>38</v>
-      </c>
-      <c r="I56" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1368</v>
-      </c>
-      <c r="D57" s="1">
-        <v>2</v>
-      </c>
-      <c r="E57" s="2">
-        <v>36.075746268656715</v>
-      </c>
-      <c r="F57" s="2">
-        <v>28.533208955223881</v>
-      </c>
-      <c r="G57" s="2">
-        <v>56.6820895522388</v>
-      </c>
-      <c r="H57">
-        <v>268</v>
-      </c>
       <c r="I57" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2272,7 +2276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2301,7 +2305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2330,7 +2334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -2359,7 +2363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2388,7 +2392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2417,7 +2421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -2482,26 +2486,26 @@
       <c r="B66" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>13</v>
+      <c r="C66" t="s">
+        <v>45</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
       </c>
       <c r="E66" s="2">
-        <v>32.596521739130431</v>
+        <v>33.105241935483875</v>
       </c>
       <c r="F66" s="2">
-        <v>24.604347826086958</v>
+        <v>24.794758064516131</v>
       </c>
       <c r="G66" s="2">
-        <v>55.656521739130433</v>
+        <v>52.69072580645161</v>
       </c>
       <c r="H66">
-        <v>115</v>
+        <v>248</v>
       </c>
       <c r="I66" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -2512,25 +2516,25 @@
         <v>9</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
       </c>
       <c r="E67" s="2">
-        <v>33.64766355140187</v>
+        <v>32.596521739130431</v>
       </c>
       <c r="F67" s="2">
-        <v>27.995327102803738</v>
+        <v>24.604347826086958</v>
       </c>
       <c r="G67" s="2">
-        <v>51.476635514018689</v>
+        <v>55.656521739130433</v>
       </c>
       <c r="H67">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="I67" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -2540,26 +2544,26 @@
       <c r="B68" t="s">
         <v>9</v>
       </c>
-      <c r="C68" t="s">
-        <v>45</v>
+      <c r="C68" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
       </c>
       <c r="E68" s="2">
-        <v>33.105241935483875</v>
+        <v>33.64766355140187</v>
       </c>
       <c r="F68" s="2">
-        <v>24.794758064516131</v>
+        <v>27.995327102803738</v>
       </c>
       <c r="G68" s="2">
-        <v>52.69072580645161</v>
+        <v>51.476635514018689</v>
       </c>
       <c r="H68">
-        <v>248</v>
+        <v>107</v>
       </c>
       <c r="I68" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -2910,7 +2914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -2939,7 +2943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>8</v>
       </c>
@@ -2968,7 +2972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -2997,7 +3001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -3026,7 +3030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -3055,7 +3059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -3084,7 +3088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -3113,7 +3117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -3142,7 +3146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -3171,152 +3175,158 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>48</v>
       </c>
       <c r="B90" t="s">
-        <v>35</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="C90" s="1">
+        <v>320</v>
       </c>
       <c r="D90" s="1">
         <v>1</v>
       </c>
       <c r="E90" s="2">
-        <v>33.177777777777777</v>
+        <v>23.131999999999998</v>
       </c>
       <c r="F90" s="2">
-        <v>32.070370370370377</v>
+        <v>19.367999999999999</v>
       </c>
       <c r="G90" s="2">
-        <v>37.285185185185192</v>
+        <v>41.847999999999999</v>
       </c>
       <c r="H90">
-        <v>81</v>
-      </c>
-      <c r="I90" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="I90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>48</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="C91" s="1">
+        <v>382</v>
       </c>
       <c r="D91" s="1">
         <v>1</v>
       </c>
       <c r="E91" s="2">
-        <v>50.344715447154471</v>
+        <v>27.559756097560978</v>
       </c>
       <c r="F91" s="2">
-        <v>46.975203252032522</v>
+        <v>24.256097560975611</v>
       </c>
       <c r="G91" s="2">
-        <v>54.897967479674804</v>
+        <v>42.332926829268295</v>
       </c>
       <c r="H91">
-        <v>246</v>
-      </c>
-      <c r="I91" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="I91">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>48</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
+      </c>
+      <c r="C92" s="1">
+        <v>952</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
       </c>
       <c r="E92" s="2">
-        <v>27.03950103950104</v>
+        <v>22.331578947368421</v>
       </c>
       <c r="F92" s="2">
-        <v>24.100000000000005</v>
+        <v>17.326315789473682</v>
       </c>
       <c r="G92" s="2">
-        <v>35.1</v>
+        <v>37.826315789473689</v>
       </c>
       <c r="H92">
-        <v>106</v>
-      </c>
-      <c r="I92" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92" t="s">
+        <v>49</v>
+      </c>
+      <c r="K92" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>48</v>
       </c>
       <c r="B93" t="s">
-        <v>35</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1300</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
       </c>
       <c r="E93" s="2">
-        <v>19.898181818181818</v>
+        <v>33.727142857142859</v>
       </c>
       <c r="F93" s="2">
-        <v>18.192727272727272</v>
+        <v>27.935714285714287</v>
       </c>
       <c r="G93" s="2">
-        <v>23.838181818181816</v>
+        <v>50.978571428571428</v>
       </c>
       <c r="H93">
-        <v>55</v>
-      </c>
-      <c r="I93" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="I93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>48</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1301</v>
       </c>
       <c r="D94" s="1">
         <v>1</v>
       </c>
       <c r="E94" s="2">
-        <v>26.534309623430964</v>
+        <v>28.789880952380951</v>
       </c>
       <c r="F94" s="2">
-        <v>24.42468619246862</v>
+        <v>22.107142857142861</v>
       </c>
       <c r="G94" s="2">
-        <v>30.081171548117155</v>
+        <v>51.410714285714285</v>
       </c>
       <c r="H94">
-        <v>239</v>
-      </c>
-      <c r="I94" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="I94">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>48</v>
       </c>
@@ -3324,28 +3334,28 @@
         <v>9</v>
       </c>
       <c r="C95" s="1">
-        <v>320</v>
+        <v>1302</v>
       </c>
       <c r="D95" s="1">
         <v>1</v>
       </c>
       <c r="E95" s="2">
-        <v>23.131999999999998</v>
+        <v>25.693630573248409</v>
       </c>
       <c r="F95" s="2">
-        <v>19.367999999999999</v>
+        <v>19.232484076433121</v>
       </c>
       <c r="G95" s="2">
-        <v>41.847999999999999</v>
+        <v>46.70700636942675</v>
       </c>
       <c r="H95">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="I95">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>48</v>
       </c>
@@ -3353,25 +3363,25 @@
         <v>9</v>
       </c>
       <c r="C96" s="1">
-        <v>392</v>
+        <v>1304</v>
       </c>
       <c r="D96" s="1">
         <v>1</v>
       </c>
       <c r="E96" s="2">
-        <v>27.559756097560978</v>
+        <v>18.91</v>
       </c>
       <c r="F96" s="2">
-        <v>24.256097560975611</v>
+        <v>13.370000000000001</v>
       </c>
       <c r="G96" s="2">
-        <v>42.332926829268295</v>
+        <v>29.723333333333336</v>
       </c>
       <c r="H96">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="I96">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -3382,31 +3392,25 @@
         <v>9</v>
       </c>
       <c r="C97" s="1">
-        <v>952</v>
+        <v>1305</v>
       </c>
       <c r="D97" s="1">
         <v>1</v>
       </c>
       <c r="E97" s="2">
-        <v>22.331578947368421</v>
+        <v>31.666765578635015</v>
       </c>
       <c r="F97" s="2">
-        <v>17.326315789473682</v>
+        <v>24.523442136498517</v>
       </c>
       <c r="G97" s="2">
-        <v>37.826315789473689</v>
+        <v>52.472700296735916</v>
       </c>
       <c r="H97">
-        <v>38</v>
+        <v>337</v>
       </c>
       <c r="I97">
-        <v>3</v>
-      </c>
-      <c r="J97" t="s">
-        <v>49</v>
-      </c>
-      <c r="K97" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -3417,25 +3421,25 @@
         <v>9</v>
       </c>
       <c r="C98" s="1">
-        <v>1300</v>
+        <v>1307</v>
       </c>
       <c r="D98" s="1">
         <v>1</v>
       </c>
       <c r="E98" s="2">
-        <v>33.727142857142859</v>
+        <v>24.044999999999998</v>
       </c>
       <c r="F98" s="2">
-        <v>27.935714285714287</v>
+        <v>16.815000000000001</v>
       </c>
       <c r="G98" s="2">
-        <v>50.978571428571428</v>
+        <v>49.8</v>
       </c>
       <c r="H98">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I98">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
@@ -3446,25 +3450,25 @@
         <v>9</v>
       </c>
       <c r="C99" s="1">
-        <v>1301</v>
+        <v>1310</v>
       </c>
       <c r="D99" s="1">
         <v>1</v>
       </c>
       <c r="E99" s="2">
-        <v>28.789880952380951</v>
+        <v>30.261963190184048</v>
       </c>
       <c r="F99" s="2">
-        <v>22.107142857142861</v>
+        <v>24.809815950920246</v>
       </c>
       <c r="G99" s="2">
-        <v>51.410714285714285</v>
+        <v>51.353987730061341</v>
       </c>
       <c r="H99">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I99">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
@@ -3475,25 +3479,25 @@
         <v>9</v>
       </c>
       <c r="C100" s="1">
-        <v>1302</v>
+        <v>1316</v>
       </c>
       <c r="D100" s="1">
         <v>1</v>
       </c>
       <c r="E100" s="2">
-        <v>25.693630573248409</v>
+        <v>27.747727272727271</v>
       </c>
       <c r="F100" s="2">
-        <v>19.232484076433121</v>
+        <v>20.102272727272727</v>
       </c>
       <c r="G100" s="2">
-        <v>46.70700636942675</v>
+        <v>52.994886363636368</v>
       </c>
       <c r="H100">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="I100">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -3504,22 +3508,22 @@
         <v>9</v>
       </c>
       <c r="C101" s="1">
-        <v>1304</v>
+        <v>1320</v>
       </c>
       <c r="D101" s="1">
         <v>1</v>
       </c>
       <c r="E101" s="2">
-        <v>18.91</v>
+        <v>35.077941176470588</v>
       </c>
       <c r="F101" s="2">
-        <v>13.370000000000001</v>
+        <v>26.501470588235296</v>
       </c>
       <c r="G101" s="2">
-        <v>29.723333333333336</v>
+        <v>59.174632352941174</v>
       </c>
       <c r="H101">
-        <v>32</v>
+        <v>272</v>
       </c>
       <c r="I101">
         <v>3</v>
@@ -3533,25 +3537,31 @@
         <v>9</v>
       </c>
       <c r="C102" s="1">
-        <v>1305</v>
+        <v>1331</v>
       </c>
       <c r="D102" s="1">
         <v>1</v>
       </c>
       <c r="E102" s="2">
-        <v>31.666765578635015</v>
+        <v>42.202183406113534</v>
       </c>
       <c r="F102" s="2">
-        <v>24.523442136498517</v>
+        <v>30.766812227074237</v>
       </c>
       <c r="G102" s="2">
-        <v>52.472700296735916</v>
+        <v>71.414847161572055</v>
       </c>
       <c r="H102">
-        <v>337</v>
+        <v>229</v>
       </c>
       <c r="I102">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="J102" t="s">
+        <v>50</v>
+      </c>
+      <c r="K102" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
@@ -3562,25 +3572,31 @@
         <v>9</v>
       </c>
       <c r="C103" s="1">
-        <v>1307</v>
+        <v>1332</v>
       </c>
       <c r="D103" s="1">
         <v>1</v>
       </c>
       <c r="E103" s="2">
-        <v>24.044999999999998</v>
+        <v>18.595454545454547</v>
       </c>
       <c r="F103" s="2">
-        <v>16.815000000000001</v>
+        <v>13.709090909090911</v>
       </c>
       <c r="G103" s="2">
-        <v>49.8</v>
+        <v>31.086363636363636</v>
       </c>
       <c r="H103">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J103" t="s">
+        <v>51</v>
+      </c>
+      <c r="K103" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -3591,25 +3607,31 @@
         <v>9</v>
       </c>
       <c r="C104" s="1">
-        <v>1310</v>
+        <v>1339</v>
       </c>
       <c r="D104" s="1">
         <v>1</v>
       </c>
       <c r="E104" s="2">
-        <v>30.261963190184048</v>
+        <v>13.84</v>
       </c>
       <c r="F104" s="2">
-        <v>24.809815950920246</v>
+        <v>8.5800000000000018</v>
       </c>
       <c r="G104" s="2">
-        <v>51.353987730061341</v>
+        <v>25.220000000000002</v>
       </c>
       <c r="H104">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="I104">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="J104" t="s">
+        <v>52</v>
+      </c>
+      <c r="K104" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
@@ -3620,25 +3642,31 @@
         <v>9</v>
       </c>
       <c r="C105" s="1">
-        <v>1316</v>
+        <v>1345</v>
       </c>
       <c r="D105" s="1">
         <v>1</v>
       </c>
       <c r="E105" s="2">
-        <v>27.747727272727271</v>
+        <v>35.231666666666662</v>
       </c>
       <c r="F105" s="2">
-        <v>20.102272727272727</v>
+        <v>25.041666666666668</v>
       </c>
       <c r="G105" s="2">
-        <v>52.994886363636368</v>
+        <v>62.715000000000003</v>
       </c>
       <c r="H105">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="I105">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="J105" t="s">
+        <v>50</v>
+      </c>
+      <c r="K105" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
@@ -3649,25 +3677,25 @@
         <v>9</v>
       </c>
       <c r="C106" s="1">
-        <v>1320</v>
+        <v>1346</v>
       </c>
       <c r="D106" s="1">
         <v>1</v>
       </c>
       <c r="E106" s="2">
-        <v>35.077941176470588</v>
+        <v>33.05849056603774</v>
       </c>
       <c r="F106" s="2">
-        <v>26.501470588235296</v>
+        <v>26.952830188679247</v>
       </c>
       <c r="G106" s="2">
-        <v>59.174632352941174</v>
+        <v>53.278616352201254</v>
       </c>
       <c r="H106">
-        <v>272</v>
+        <v>159</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
@@ -3678,31 +3706,25 @@
         <v>9</v>
       </c>
       <c r="C107" s="1">
-        <v>1331</v>
+        <v>1347</v>
       </c>
       <c r="D107" s="1">
         <v>1</v>
       </c>
       <c r="E107" s="2">
-        <v>42.202183406113534</v>
+        <v>29.62537313432836</v>
       </c>
       <c r="F107" s="2">
-        <v>30.766812227074237</v>
+        <v>19.286567164179104</v>
       </c>
       <c r="G107" s="2">
-        <v>71.414847161572055</v>
+        <v>59.453731343283593</v>
       </c>
       <c r="H107">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c r="I107">
-        <v>2</v>
-      </c>
-      <c r="J107" t="s">
-        <v>50</v>
-      </c>
-      <c r="K107" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
@@ -3713,31 +3735,25 @@
         <v>9</v>
       </c>
       <c r="C108" s="1">
-        <v>1332</v>
+        <v>1348</v>
       </c>
       <c r="D108" s="1">
         <v>1</v>
       </c>
       <c r="E108" s="2">
-        <v>18.595454545454547</v>
+        <v>30.532065217391303</v>
       </c>
       <c r="F108" s="2">
-        <v>13.709090909090911</v>
+        <v>21.289130434782606</v>
       </c>
       <c r="G108" s="2">
-        <v>31.086363636363636</v>
+        <v>54.47608695652174</v>
       </c>
       <c r="H108">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="I108">
-        <v>2</v>
-      </c>
-      <c r="J108" t="s">
-        <v>51</v>
-      </c>
-      <c r="K108" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -3748,31 +3764,25 @@
         <v>9</v>
       </c>
       <c r="C109" s="1">
-        <v>1339</v>
+        <v>1357</v>
       </c>
       <c r="D109" s="1">
         <v>1</v>
       </c>
       <c r="E109" s="2">
-        <v>13.84</v>
+        <v>36.083333333333336</v>
       </c>
       <c r="F109" s="2">
-        <v>8.5800000000000018</v>
+        <v>26.402083333333334</v>
       </c>
       <c r="G109" s="2">
-        <v>25.220000000000002</v>
+        <v>61.069791666666674</v>
       </c>
       <c r="H109">
+        <v>192</v>
+      </c>
+      <c r="I109">
         <v>5</v>
-      </c>
-      <c r="I109">
-        <v>2</v>
-      </c>
-      <c r="J109" t="s">
-        <v>52</v>
-      </c>
-      <c r="K109" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
@@ -3783,31 +3793,25 @@
         <v>9</v>
       </c>
       <c r="C110" s="1">
-        <v>1345</v>
+        <v>1359</v>
       </c>
       <c r="D110" s="1">
         <v>1</v>
       </c>
       <c r="E110" s="2">
-        <v>35.231666666666662</v>
+        <v>24.0970297029703</v>
       </c>
       <c r="F110" s="2">
-        <v>25.041666666666668</v>
+        <v>18.640594059405938</v>
       </c>
       <c r="G110" s="2">
-        <v>62.715000000000003</v>
+        <v>37.990099009900987</v>
       </c>
       <c r="H110">
-        <v>240</v>
+        <v>101</v>
       </c>
       <c r="I110">
-        <v>2</v>
-      </c>
-      <c r="J110" t="s">
-        <v>50</v>
-      </c>
-      <c r="K110" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
@@ -3818,25 +3822,25 @@
         <v>9</v>
       </c>
       <c r="C111" s="1">
-        <v>1346</v>
+        <v>1360</v>
       </c>
       <c r="D111" s="1">
         <v>1</v>
       </c>
       <c r="E111" s="2">
-        <v>33.05849056603774</v>
+        <v>28.618072289156629</v>
       </c>
       <c r="F111" s="2">
-        <v>26.952830188679247</v>
+        <v>20.59277108433735</v>
       </c>
       <c r="G111" s="2">
-        <v>53.278616352201254</v>
+        <v>50.045180722891565</v>
       </c>
       <c r="H111">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="I111">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
@@ -3847,25 +3851,25 @@
         <v>9</v>
       </c>
       <c r="C112" s="1">
-        <v>1347</v>
+        <v>1361</v>
       </c>
       <c r="D112" s="1">
         <v>1</v>
       </c>
       <c r="E112" s="2">
-        <v>29.62537313432836</v>
+        <v>34.389634146341464</v>
       </c>
       <c r="F112" s="2">
-        <v>19.286567164179104</v>
+        <v>27.653658536585365</v>
       </c>
       <c r="G112" s="2">
-        <v>59.453731343283593</v>
+        <v>52.68810975609756</v>
       </c>
       <c r="H112">
-        <v>134</v>
+        <v>328</v>
       </c>
       <c r="I112">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
@@ -3876,25 +3880,25 @@
         <v>9</v>
       </c>
       <c r="C113" s="1">
-        <v>1348</v>
+        <v>1364</v>
       </c>
       <c r="D113" s="1">
         <v>1</v>
       </c>
       <c r="E113" s="2">
-        <v>30.532065217391303</v>
+        <v>28.051127819548874</v>
       </c>
       <c r="F113" s="2">
-        <v>21.289130434782606</v>
+        <v>21.137593984962407</v>
       </c>
       <c r="G113" s="2">
-        <v>54.47608695652174</v>
+        <v>46.186466165413528</v>
       </c>
       <c r="H113">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="I113">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
@@ -3905,22 +3909,22 @@
         <v>9</v>
       </c>
       <c r="C114" s="1">
-        <v>1357</v>
+        <v>1367</v>
       </c>
       <c r="D114" s="1">
         <v>1</v>
       </c>
       <c r="E114" s="2">
-        <v>36.083333333333336</v>
+        <v>25.039639639639642</v>
       </c>
       <c r="F114" s="2">
-        <v>26.402083333333334</v>
+        <v>17.11936936936937</v>
       </c>
       <c r="G114" s="2">
-        <v>61.069791666666674</v>
+        <v>47.623873873873876</v>
       </c>
       <c r="H114">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="I114">
         <v>5</v>
@@ -3934,25 +3938,25 @@
         <v>9</v>
       </c>
       <c r="C115" s="1">
-        <v>1359</v>
+        <v>1368</v>
       </c>
       <c r="D115" s="1">
         <v>1</v>
       </c>
       <c r="E115" s="2">
-        <v>24.0970297029703</v>
+        <v>30.071428571428573</v>
       </c>
       <c r="F115" s="2">
-        <v>18.640594059405938</v>
+        <v>23.815384615384612</v>
       </c>
       <c r="G115" s="2">
-        <v>37.990099009900987</v>
+        <v>47.926373626373618</v>
       </c>
       <c r="H115">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="I115">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
@@ -3963,22 +3967,22 @@
         <v>9</v>
       </c>
       <c r="C116" s="1">
-        <v>1360</v>
+        <v>1369</v>
       </c>
       <c r="D116" s="1">
         <v>1</v>
       </c>
       <c r="E116" s="2">
-        <v>28.618072289156629</v>
+        <v>25.88490566037736</v>
       </c>
       <c r="F116" s="2">
-        <v>20.59277108433735</v>
+        <v>15.239622641509433</v>
       </c>
       <c r="G116" s="2">
-        <v>50.045180722891565</v>
+        <v>53.41698113207547</v>
       </c>
       <c r="H116">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="I116">
         <v>7</v>
@@ -3992,25 +3996,25 @@
         <v>9</v>
       </c>
       <c r="C117" s="1">
-        <v>1361</v>
+        <v>1371</v>
       </c>
       <c r="D117" s="1">
         <v>1</v>
       </c>
       <c r="E117" s="2">
-        <v>34.389634146341464</v>
+        <v>29.468421052631577</v>
       </c>
       <c r="F117" s="2">
-        <v>27.653658536585365</v>
+        <v>22.289473684210527</v>
       </c>
       <c r="G117" s="2">
-        <v>52.68810975609756</v>
+        <v>60.094736842105263</v>
       </c>
       <c r="H117">
-        <v>328</v>
+        <v>19</v>
       </c>
       <c r="I117">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
@@ -4021,25 +4025,25 @@
         <v>9</v>
       </c>
       <c r="C118" s="1">
-        <v>1364</v>
+        <v>1372</v>
       </c>
       <c r="D118" s="1">
         <v>1</v>
       </c>
       <c r="E118" s="2">
-        <v>28.051127819548874</v>
+        <v>37.231543624161077</v>
       </c>
       <c r="F118" s="2">
-        <v>21.137593984962407</v>
+        <v>28.552796420581657</v>
       </c>
       <c r="G118" s="2">
-        <v>46.186466165413528</v>
+        <v>60.404921700223703</v>
       </c>
       <c r="H118">
-        <v>133</v>
+        <v>447</v>
       </c>
       <c r="I118">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
@@ -4050,25 +4054,25 @@
         <v>9</v>
       </c>
       <c r="C119" s="1">
-        <v>1367</v>
+        <v>1375</v>
       </c>
       <c r="D119" s="1">
         <v>1</v>
       </c>
       <c r="E119" s="2">
-        <v>25.039639639639642</v>
+        <v>28.386666666666667</v>
       </c>
       <c r="F119" s="2">
-        <v>17.11936936936937</v>
+        <v>19.59333333333333</v>
       </c>
       <c r="G119" s="2">
-        <v>47.623873873873876</v>
+        <v>56.656666666666659</v>
       </c>
       <c r="H119">
-        <v>222</v>
+        <v>30</v>
       </c>
       <c r="I119">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
@@ -4079,22 +4083,22 @@
         <v>9</v>
       </c>
       <c r="C120" s="1">
-        <v>1368</v>
+        <v>1378</v>
       </c>
       <c r="D120" s="1">
         <v>1</v>
       </c>
       <c r="E120" s="2">
-        <v>30.071428571428573</v>
+        <v>27.101694915254239</v>
       </c>
       <c r="F120" s="2">
-        <v>23.815384615384612</v>
+        <v>19.335593220338982</v>
       </c>
       <c r="G120" s="2">
-        <v>47.926373626373618</v>
+        <v>48.794915254237289</v>
       </c>
       <c r="H120">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="I120">
         <v>5</v>
@@ -4108,25 +4112,25 @@
         <v>9</v>
       </c>
       <c r="C121" s="1">
-        <v>1369</v>
+        <v>1381</v>
       </c>
       <c r="D121" s="1">
         <v>1</v>
       </c>
       <c r="E121" s="2">
-        <v>25.88490566037736</v>
+        <v>29.677005347593578</v>
       </c>
       <c r="F121" s="2">
-        <v>15.239622641509433</v>
+        <v>23.26417112299465</v>
       </c>
       <c r="G121" s="2">
-        <v>53.41698113207547</v>
+        <v>48.835828877005341</v>
       </c>
       <c r="H121">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="I121">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
@@ -4137,25 +4141,31 @@
         <v>9</v>
       </c>
       <c r="C122" s="1">
-        <v>1371</v>
+        <v>1383</v>
       </c>
       <c r="D122" s="1">
         <v>1</v>
       </c>
       <c r="E122" s="2">
-        <v>29.468421052631577</v>
+        <v>20.375</v>
       </c>
       <c r="F122" s="2">
-        <v>22.289473684210527</v>
+        <v>16.533333333333335</v>
       </c>
       <c r="G122" s="2">
-        <v>60.094736842105263</v>
+        <v>35.583333333333336</v>
       </c>
       <c r="H122">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="J122" t="s">
+        <v>51</v>
+      </c>
+      <c r="K122" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
@@ -4166,25 +4176,25 @@
         <v>9</v>
       </c>
       <c r="C123" s="1">
-        <v>1372</v>
+        <v>1385</v>
       </c>
       <c r="D123" s="1">
         <v>1</v>
       </c>
       <c r="E123" s="2">
-        <v>37.231543624161077</v>
+        <v>28.634090909090904</v>
       </c>
       <c r="F123" s="2">
-        <v>28.552796420581657</v>
+        <v>19.78863636363636</v>
       </c>
       <c r="G123" s="2">
-        <v>60.404921700223703</v>
+        <v>53.50454545454545</v>
       </c>
       <c r="H123">
-        <v>447</v>
+        <v>44</v>
       </c>
       <c r="I123">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -4195,25 +4205,25 @@
         <v>9</v>
       </c>
       <c r="C124" s="1">
-        <v>1375</v>
+        <v>1399</v>
       </c>
       <c r="D124" s="1">
         <v>1</v>
       </c>
       <c r="E124" s="2">
-        <v>28.386666666666667</v>
+        <v>34.045391705069129</v>
       </c>
       <c r="F124" s="2">
-        <v>19.59333333333333</v>
+        <v>26.359907834101385</v>
       </c>
       <c r="G124" s="2">
-        <v>56.656666666666659</v>
+        <v>57.821198156682023</v>
       </c>
       <c r="H124">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="I124">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
@@ -4224,25 +4234,31 @@
         <v>9</v>
       </c>
       <c r="C125" s="1">
-        <v>1378</v>
+        <v>1649</v>
       </c>
       <c r="D125" s="1">
         <v>1</v>
       </c>
       <c r="E125" s="2">
-        <v>27.101694915254239</v>
+        <v>28.65891472868217</v>
       </c>
       <c r="F125" s="2">
-        <v>19.335593220338982</v>
+        <v>20.619379844961241</v>
       </c>
       <c r="G125" s="2">
-        <v>48.794915254237289</v>
+        <v>46.210852713178291</v>
       </c>
       <c r="H125">
-        <v>118</v>
+        <v>258</v>
       </c>
       <c r="I125">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="J125" t="s">
+        <v>51</v>
+      </c>
+      <c r="K125" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
@@ -4253,25 +4269,25 @@
         <v>9</v>
       </c>
       <c r="C126" s="1">
-        <v>1381</v>
+        <v>1654</v>
       </c>
       <c r="D126" s="1">
         <v>1</v>
       </c>
       <c r="E126" s="2">
-        <v>29.677005347593578</v>
+        <v>29.386163522012577</v>
       </c>
       <c r="F126" s="2">
-        <v>23.26417112299465</v>
+        <v>21.780503144654084</v>
       </c>
       <c r="G126" s="2">
-        <v>48.835828877005341</v>
+        <v>49.213836477987421</v>
       </c>
       <c r="H126">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="I126">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
@@ -4282,31 +4298,25 @@
         <v>9</v>
       </c>
       <c r="C127" s="1">
-        <v>1383</v>
+        <v>1659</v>
       </c>
       <c r="D127" s="1">
         <v>1</v>
       </c>
       <c r="E127" s="2">
-        <v>20.375</v>
+        <v>29.485552407932012</v>
       </c>
       <c r="F127" s="2">
-        <v>16.533333333333335</v>
+        <v>20.838810198300283</v>
       </c>
       <c r="G127" s="2">
-        <v>35.583333333333336</v>
+        <v>52.166572237960338</v>
       </c>
       <c r="H127">
-        <v>36</v>
+        <v>353</v>
       </c>
       <c r="I127">
-        <v>4</v>
-      </c>
-      <c r="J127" t="s">
-        <v>51</v>
-      </c>
-      <c r="K127" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
@@ -4317,25 +4327,25 @@
         <v>9</v>
       </c>
       <c r="C128" s="1">
-        <v>1385</v>
+        <v>1669</v>
       </c>
       <c r="D128" s="1">
         <v>1</v>
       </c>
       <c r="E128" s="2">
-        <v>28.634090909090904</v>
+        <v>30.893939393939394</v>
       </c>
       <c r="F128" s="2">
-        <v>19.78863636363636</v>
+        <v>26.866666666666667</v>
       </c>
       <c r="G128" s="2">
-        <v>53.50454545454545</v>
+        <v>49.665151515151521</v>
       </c>
       <c r="H128">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="I128">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
@@ -4346,25 +4356,25 @@
         <v>9</v>
       </c>
       <c r="C129" s="1">
-        <v>1399</v>
+        <v>1682</v>
       </c>
       <c r="D129" s="1">
         <v>1</v>
       </c>
       <c r="E129" s="2">
-        <v>34.045391705069129</v>
+        <v>29.828145695364238</v>
       </c>
       <c r="F129" s="2">
-        <v>26.359907834101385</v>
+        <v>23.191721854304635</v>
       </c>
       <c r="G129" s="2">
-        <v>57.821198156682023</v>
+        <v>50.047019867549665</v>
       </c>
       <c r="H129">
-        <v>434</v>
+        <v>302</v>
       </c>
       <c r="I129">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
@@ -4375,31 +4385,25 @@
         <v>9</v>
       </c>
       <c r="C130" s="1">
-        <v>1649</v>
+        <v>1687</v>
       </c>
       <c r="D130" s="1">
         <v>1</v>
       </c>
       <c r="E130" s="2">
-        <v>28.65891472868217</v>
+        <v>29.5</v>
       </c>
       <c r="F130" s="2">
-        <v>20.619379844961241</v>
+        <v>26.21</v>
       </c>
       <c r="G130" s="2">
-        <v>46.210852713178291</v>
+        <v>47.379999999999995</v>
       </c>
       <c r="H130">
-        <v>258</v>
+        <v>46</v>
       </c>
       <c r="I130">
-        <v>3</v>
-      </c>
-      <c r="J130" t="s">
-        <v>51</v>
-      </c>
-      <c r="K130" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
@@ -4410,25 +4414,25 @@
         <v>9</v>
       </c>
       <c r="C131" s="1">
-        <v>1654</v>
+        <v>1689</v>
       </c>
       <c r="D131" s="1">
         <v>1</v>
       </c>
       <c r="E131" s="2">
-        <v>29.386163522012577</v>
+        <v>30.799489795918365</v>
       </c>
       <c r="F131" s="2">
-        <v>21.780503144654084</v>
+        <v>25.1984693877551</v>
       </c>
       <c r="G131" s="2">
-        <v>49.213836477987421</v>
+        <v>47.979081632653056</v>
       </c>
       <c r="H131">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="I131">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
@@ -4439,25 +4443,25 @@
         <v>9</v>
       </c>
       <c r="C132" s="1">
-        <v>1659</v>
+        <v>704105</v>
       </c>
       <c r="D132" s="1">
         <v>1</v>
       </c>
       <c r="E132" s="2">
-        <v>29.485552407932012</v>
+        <v>27.323913043478264</v>
       </c>
       <c r="F132" s="2">
-        <v>20.838810198300283</v>
+        <v>19.904347826086955</v>
       </c>
       <c r="G132" s="2">
-        <v>52.166572237960338</v>
+        <v>48.660869565217396</v>
       </c>
       <c r="H132">
-        <v>353</v>
+        <v>46</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
@@ -4467,26 +4471,26 @@
       <c r="B133" t="s">
         <v>9</v>
       </c>
-      <c r="C133" s="1">
-        <v>1669</v>
+      <c r="C133" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D133" s="1">
         <v>1</v>
       </c>
       <c r="E133" s="2">
-        <v>30.893939393939394</v>
+        <v>34.207650273224047</v>
       </c>
       <c r="F133" s="2">
-        <v>26.866666666666667</v>
+        <v>26.715300546448091</v>
       </c>
       <c r="G133" s="2">
-        <v>49.665151515151521</v>
+        <v>56.88360655737705</v>
       </c>
       <c r="H133">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="I133">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
@@ -4496,26 +4500,26 @@
       <c r="B134" t="s">
         <v>9</v>
       </c>
-      <c r="C134" s="1">
-        <v>1682</v>
+      <c r="C134" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D134" s="1">
         <v>1</v>
       </c>
       <c r="E134" s="2">
-        <v>29.828145695364238</v>
+        <v>25.029166666666665</v>
       </c>
       <c r="F134" s="2">
-        <v>23.191721854304635</v>
+        <v>18.887499999999999</v>
       </c>
       <c r="G134" s="2">
-        <v>50.047019867549665</v>
+        <v>40.67916666666666</v>
       </c>
       <c r="H134">
-        <v>302</v>
+        <v>48</v>
       </c>
       <c r="I134">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
@@ -4525,177 +4529,177 @@
       <c r="B135" t="s">
         <v>9</v>
       </c>
-      <c r="C135" s="1">
-        <v>1687</v>
+      <c r="C135" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D135" s="1">
         <v>1</v>
       </c>
       <c r="E135" s="2">
-        <v>29.5</v>
+        <v>28.15625</v>
       </c>
       <c r="F135" s="2">
-        <v>26.21</v>
+        <v>20.55</v>
       </c>
       <c r="G135" s="2">
-        <v>47.379999999999995</v>
+        <v>46.871875000000003</v>
       </c>
       <c r="H135">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="I135">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="J135" t="s">
+        <v>49</v>
+      </c>
+      <c r="K135" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
-      </c>
-      <c r="C136" s="1">
-        <v>1689</v>
+        <v>35</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D136" s="1">
         <v>1</v>
       </c>
       <c r="E136" s="2">
-        <v>30.799489795918365</v>
+        <v>33.177777777777777</v>
       </c>
       <c r="F136" s="2">
-        <v>25.1984693877551</v>
+        <v>32.070370370370377</v>
       </c>
       <c r="G136" s="2">
-        <v>47.979081632653056</v>
+        <v>37.285185185185192</v>
       </c>
       <c r="H136">
-        <v>196</v>
-      </c>
-      <c r="I136">
-        <v>5</v>
+        <v>81</v>
+      </c>
+      <c r="I136" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>9</v>
-      </c>
-      <c r="C137" s="1">
-        <v>704105</v>
+        <v>35</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D137" s="1">
         <v>1</v>
       </c>
       <c r="E137" s="2">
-        <v>27.323913043478264</v>
+        <v>50.344715447154471</v>
       </c>
       <c r="F137" s="2">
-        <v>19.904347826086955</v>
+        <v>46.975203252032522</v>
       </c>
       <c r="G137" s="2">
-        <v>48.660869565217396</v>
+        <v>54.897967479674804</v>
       </c>
       <c r="H137">
-        <v>46</v>
-      </c>
-      <c r="I137">
-        <v>5</v>
+        <v>246</v>
+      </c>
+      <c r="I137" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D138" s="1">
         <v>1</v>
       </c>
       <c r="E138" s="2">
-        <v>34.207650273224047</v>
+        <v>27.03950103950104</v>
       </c>
       <c r="F138" s="2">
-        <v>26.715300546448091</v>
+        <v>24.100000000000005</v>
       </c>
       <c r="G138" s="2">
-        <v>56.88360655737705</v>
+        <v>35.1</v>
       </c>
       <c r="H138">
-        <v>183</v>
-      </c>
-      <c r="I138">
-        <v>4</v>
+        <v>106</v>
+      </c>
+      <c r="I138" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D139" s="1">
         <v>1</v>
       </c>
       <c r="E139" s="2">
-        <v>25.029166666666665</v>
+        <v>19.898181818181818</v>
       </c>
       <c r="F139" s="2">
-        <v>18.887499999999999</v>
+        <v>18.192727272727272</v>
       </c>
       <c r="G139" s="2">
-        <v>40.67916666666666</v>
+        <v>23.838181818181816</v>
       </c>
       <c r="H139">
-        <v>48</v>
-      </c>
-      <c r="I139">
-        <v>4</v>
+        <v>55</v>
+      </c>
+      <c r="I139" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D140" s="1">
         <v>1</v>
       </c>
       <c r="E140" s="2">
-        <v>28.15625</v>
+        <v>26.534309623430964</v>
       </c>
       <c r="F140" s="2">
-        <v>20.55</v>
+        <v>24.42468619246862</v>
       </c>
       <c r="G140" s="2">
-        <v>46.871875000000003</v>
+        <v>30.081171548117155</v>
       </c>
       <c r="H140">
-        <v>64</v>
-      </c>
-      <c r="I140">
+        <v>239</v>
+      </c>
+      <c r="I140" s="3">
         <v>4</v>
-      </c>
-      <c r="J140" t="s">
-        <v>49</v>
-      </c>
-      <c r="K140" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
@@ -4703,6 +4707,10 @@
       <c r="J141" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K140">
+    <sortCondition ref="A2:A140"/>
+    <sortCondition ref="C2:C140"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
